--- a/用例图/微信小程序用例规约/点餐用例规约.xlsx
+++ b/用例图/微信小程序用例规约/点餐用例规约.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hopingFormorning\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hopingFormorning\workplace\WCTOS_UESTC\用例图\微信小程序用例规约\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9D5451-611B-4F4A-BBD1-7A4C65A38EC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60053B4-F5FB-4782-A6E4-EB7DACE07BA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10125" yWindow="450" windowWidth="15255" windowHeight="13170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12690" yWindow="990" windowWidth="15255" windowHeight="13170" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
   <si>
     <t>用例编号</t>
   </si>
@@ -73,18 +73,6 @@
     <t>基本路径</t>
   </si>
   <si>
-    <t>客户输入搜索信息正确传送至系统</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统对搜索信息进行检索</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统对搜索信息进行相应</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1用户点击搜索框</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -109,14 +97,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2.1系统没有检索到相关菜品，重新输入</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.2发送错误系统提示</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>UC2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -125,18 +105,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>客户点击功能菜单</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统对用户点击做出反馈</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统显示相应的分类菜品</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1用户点击功能菜单</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -157,18 +125,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>3.1用户选择相应菜品进入订单生成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>2.1暂没有相关菜品提示用户</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>3.1用户选择菜品后进入订单生成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>UC3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -177,18 +137,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>客户点击菜品点餐</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>客户登录，点击点餐</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>系统显示相应的菜品</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1用户点击菜品</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -217,18 +169,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>系统保存点餐信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统生成订单</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统保存订单</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1用户确认点餐</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -254,6 +194,30 @@
   </si>
   <si>
     <t>2.2订单确认前用户可撤销</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户登录，点击功能选项</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统进入订单生成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知商家确认订单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1系统没有检索到相关菜品，重新输入</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1发生错误系统提示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1用户选择菜品后进入订单生成</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -352,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -366,23 +330,37 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -395,21 +373,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -697,8 +680,8 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -710,27 +693,27 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="7">
         <v>43927</v>
       </c>
     </row>
@@ -738,116 +721,110 @@
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="19" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="21"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+    </row>
+    <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="20"/>
+      <c r="B9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="19" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+    </row>
+    <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="20"/>
+      <c r="B10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="20" t="s">
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+    </row>
+    <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="20"/>
+      <c r="B11" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-    </row>
-    <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="12" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+    </row>
+    <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="20"/>
+      <c r="B12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="12" t="s">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-    </row>
-    <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
+      <c r="B13" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
     </row>
     <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
-      <c r="B14" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
     </row>
     <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
-      <c r="B15" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
     </row>
     <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
@@ -859,14 +836,12 @@
     <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="13">
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B5:D7"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="A13:A15"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="A8:A12"/>
@@ -886,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70F5602-C88A-4036-8B06-C811F16BAD9C}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -896,27 +871,27 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>24</v>
+      <c r="B1" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>25</v>
+      <c r="D1" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="7">
         <v>43927</v>
       </c>
     </row>
@@ -924,122 +899,114 @@
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="B4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="29" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
+      <c r="A7" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
-      <c r="B9" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
-      <c r="B10" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
+      <c r="A11" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
     </row>
     <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A12:A13"/>
+  <mergeCells count="12">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B3:D3"/>
     <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:D6"/>
+    <mergeCell ref="B11:D12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1049,156 +1016,157 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8810F671-9FDE-4569-92ED-B4C35EE45653}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>37</v>
+      <c r="B1" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="D1" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="7">
         <v>43927</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-    </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="B4" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="21"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="21"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="19"/>
+      <c r="B9" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="19"/>
+      <c r="B10" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="19"/>
+      <c r="B11" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
-      <c r="B9" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
-      <c r="B10" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="19"/>
+      <c r="B13" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B4:D4"/>
+  <mergeCells count="13">
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E5:G5"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B5:D7"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1210,8 +1178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3105C6E-F50E-46F9-93A8-7BA7C77B9BD7}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1220,27 +1188,27 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>46</v>
+      <c r="B1" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>47</v>
+      <c r="D1" s="10" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="7">
         <v>43927</v>
       </c>
     </row>
@@ -1248,134 +1216,126 @@
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
+      <c r="B4" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
+      <c r="A8" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
-      <c r="B9" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="22"/>
-      <c r="B10" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="22"/>
-      <c r="B12" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
+      <c r="A13" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="22"/>
-      <c r="B14" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
-      <c r="B15" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="14">
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B5:D7"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
